--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -435,36 +435,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>gAAAAABoA3mQc3Bvthc600ow6DIVO-fdRuME3_L8TbmN8uBMUoZZ7d5BDrX1lbWJchE2IneLzn4361SKcZhXi7lVj9sF_rAkzg==</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>gAAAAABoA3mQkwnUVqPqbvCRbqyBWPmQvrzu_JlUla-l160SD3QHpESMhdzZ3o2aGt-GTsGZcPWcFO4b5potBMB4-IZtxXFJ1A==</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>asdasd</t>
+          <t>gAAAAABoA3mQ3B2JXasmMGuUjuAYc3tRsOQ6ZisKijuhxamCaJyLKVrKofAU35OwxJktHhsHvr6zYhZb5CgisOlVWs0lgaqlDQ==</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>gAAAAABoA3mQojuXRub9UHhl8z2gwoQF5H3rOG1ujoQxqZdjWaZFkyvV3_zix9OPaLUXKYoifkEO_EXj39Mz4yOHfDHKYwoiJw==</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>gAAAAABoA3mQmJdJ0I8ZImH__KFD3-6_3WtFgW0bXo8g4s1nTykHANuIGWBh0ljz2dDKk0nJXqj1qTip4HJYTR8Jh7vcvpkwlA==</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>2025-04-19 15:19:50</t>
+          <t>2025-04-19 15:53:12</t>
         </is>
       </c>
     </row>
